--- a/98 - 漫游1 - Movement Effects - 运动效果.xlsx
+++ b/98 - 漫游1 - Movement Effects - 运动效果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="3" r:id="rId1"/>
@@ -778,7 +778,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="392">
   <si>
     <t>介绍</t>
   </si>
@@ -827,6 +827,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>·</t>
     </r>
     <r>
@@ -894,6 +901,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>·</t>
     </r>
     <r>
@@ -961,6 +975,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>·</t>
     </r>
     <r>
@@ -1044,6 +1065,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>智能闪烁</t>
     </r>
     <r>
@@ -3233,6 +3262,41 @@
     <t>更改平滑相机的滚动速度</t>
   </si>
   <si>
+    <t>General Settings</t>
+  </si>
+  <si>
+    <t>常规设置</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>Round Variable Coordinates:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">舍入变量坐标：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用控制变量确定屏幕X/Y坐标时，是否舍入显示坐标？
+译者注：Round在JS里，是四舍五入。</t>
+    </r>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Dust Cloud Settings</t>
   </si>
   <si>
@@ -3684,9 +3748,6 @@
 -不适用于标准RTP
 -由于对角线智能闪烁能够覆盖的距离，默认情况下禁用此功能。</t>
     </r>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Floor to Ceiling?:</t>
@@ -4851,7 +4912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4879,6 +4940,9 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4899,15 +4963,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5353,7 +5408,7 @@
   <sheetPr/>
   <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -5363,12 +5418,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="2:2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5433,22 +5488,22 @@
       </c>
     </row>
     <row r="15" ht="27" spans="2:2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:2">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" ht="27" spans="2:2">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="27" spans="2:2">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5468,17 +5523,17 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="27" spans="2:2">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="2:2">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5493,22 +5548,22 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" ht="27" spans="2:2">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="2:2">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" ht="27" spans="2:2">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5613,7 +5668,7 @@
       </c>
     </row>
     <row r="71" ht="40.5" spans="2:2">
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5633,17 +5688,17 @@
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="78" ht="27" spans="2:2">
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="79" ht="40.5" spans="2:2">
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5675,7 +5730,7 @@
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -5687,59 +5742,59 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" ht="37.5" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
     </row>
     <row r="5" ht="18.75" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" ht="37.5" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" ht="39" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5747,10 +5802,10 @@
       <c r="A8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5758,32 +5813,32 @@
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" ht="37.5" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" ht="39" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5791,10 +5846,10 @@
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5802,10 +5857,10 @@
       <c r="A13" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5824,7 +5879,7 @@
       <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
@@ -5832,10 +5887,10 @@
       </c>
     </row>
     <row r="16" ht="85.5" spans="1:3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C16" t="s">
@@ -5843,10 +5898,10 @@
       </c>
     </row>
     <row r="17" ht="54" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C17" t="s">
@@ -5854,7 +5909,7 @@
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5862,10 +5917,10 @@
       <c r="A20" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5873,21 +5928,21 @@
       <c r="A21" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" ht="61.5" spans="1:3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5895,21 +5950,21 @@
       <c r="A23" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" ht="61.5" spans="1:3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5917,10 +5972,10 @@
       <c r="A25" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5928,7 +5983,7 @@
       <c r="A26" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C26" t="s">
@@ -5950,7 +6005,7 @@
       <c r="A28" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C28" t="s">
@@ -5961,7 +6016,7 @@
       <c r="A29" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C29" t="s">
@@ -5969,10 +6024,10 @@
       </c>
     </row>
     <row r="30" ht="37.5" spans="1:3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C30" t="s">
@@ -5980,7 +6035,7 @@
       </c>
     </row>
     <row r="32" ht="18.75" spans="1:1">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5991,56 +6046,56 @@
       <c r="B33" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" ht="76.5" spans="1:3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" ht="76.5" spans="1:3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6051,62 +6106,62 @@
       <c r="B40" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" ht="37.5" spans="1:3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" ht="37.5" spans="1:3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:3">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" ht="27" spans="1:3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="45" ht="301.5" spans="1:3">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6122,7 +6177,7 @@
       </c>
     </row>
     <row r="47" ht="27" spans="1:3">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B47" t="s">
@@ -6133,7 +6188,7 @@
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6149,10 +6204,10 @@
       </c>
     </row>
     <row r="51" ht="37.5" spans="1:3">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C51" t="s">
@@ -6160,18 +6215,18 @@
       </c>
     </row>
     <row r="52" ht="37.5" spans="1:3">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6179,7 +6234,7 @@
       <c r="A55" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C55" t="s">
@@ -6190,7 +6245,7 @@
       <c r="A56" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C56" t="s">
@@ -6222,7 +6277,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6243,7 +6298,7 @@
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6264,7 +6319,7 @@
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6275,7 +6330,7 @@
       <c r="B10" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6286,7 +6341,7 @@
       <c r="B11" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6297,12 +6352,12 @@
       <c r="B12" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6310,7 +6365,7 @@
       <c r="A15" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6318,7 +6373,7 @@
       <c r="A16" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6326,7 +6381,7 @@
       <c r="A17" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6334,7 +6389,7 @@
       <c r="A18" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6342,7 +6397,7 @@
       <c r="A19" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6350,7 +6405,7 @@
       <c r="A20" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6379,7 +6434,7 @@
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6387,7 +6442,7 @@
       <c r="A26" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6395,7 +6450,7 @@
       <c r="A27" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6403,7 +6458,7 @@
       <c r="A28" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6411,7 +6466,7 @@
       <c r="A29" t="s">
         <v>197</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6419,7 +6474,7 @@
       <c r="A30" t="s">
         <v>199</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6448,7 +6503,7 @@
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6478,10 +6533,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6512,967 +6567,998 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="37.5" spans="1:3">
       <c r="A3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+    <row r="5" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:4">
+      <c r="A8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
-      <c r="A9" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:4">
+      <c r="A13" s="7" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B14" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="2:4">
-      <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="B15" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" ht="25.5" spans="1:3">
       <c r="A16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" t="s">
         <v>247</v>
       </c>
+      <c r="B16" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
         <v>249</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="17" customFormat="1" spans="2:4">
+      <c r="B17" s="11"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:4">
+      <c r="A19" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="B19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>254</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>260</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:4">
-      <c r="A24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B24" s="7" t="s">
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:4">
+      <c r="A25" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" ht="81" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="B26" t="s">
         <v>266</v>
       </c>
-      <c r="B26" s="7" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>267</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" ht="81" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="B27" t="s">
         <v>268</v>
       </c>
-      <c r="B27" s="11" t="s">
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:4">
+      <c r="A28" s="7" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" ht="81" spans="1:2">
+      <c r="A29" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="12" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" t="s">
-        <v>272</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>273</v>
-      </c>
-      <c r="B32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="31" ht="81" spans="1:2">
+      <c r="A31" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B31" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="3" t="s">
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A33" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="34" ht="25.5" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B33" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:4">
+      <c r="A34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" t="s">
         <v>279</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="35" ht="25.5" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
         <v>281</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C36" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>282</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="B37" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:4">
-      <c r="A36" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B36" s="7" t="s">
+    </row>
+    <row r="38" ht="25.5" spans="1:3">
+      <c r="A38" t="s">
         <v>285</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B38" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="C38" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" ht="25.5" spans="1:3">
+      <c r="A39" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B39" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    <row r="40" s="2" customFormat="1" spans="1:4">
+      <c r="A40" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:4">
-      <c r="A41" s="7" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" t="s">
         <v>293</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42" t="s">
         <v>295</v>
-      </c>
-      <c r="B42" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" t="s">
         <v>297</v>
-      </c>
-      <c r="B43" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>298</v>
+      </c>
+      <c r="B44" t="s">
         <v>299</v>
-      </c>
-      <c r="B44" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:4">
       <c r="A45" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" t="s">
         <v>303</v>
-      </c>
-      <c r="B46" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:4">
       <c r="A49" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A54" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B54" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:4">
+      <c r="A53" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="1:4">
-      <c r="A55" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>314</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" ht="49.5" spans="1:3">
+      <c r="B54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>315</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C56" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="57" ht="25.5" spans="1:2">
-      <c r="A57" t="s">
+    <row r="58" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A58" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B58" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="58" s="2" customFormat="1" spans="1:4">
-      <c r="A58" s="7" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="1:4">
+      <c r="A59" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" ht="49.5" spans="1:3">
+      <c r="A60" t="s">
         <v>322</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" s="11" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="C60" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" spans="1:2">
+      <c r="A61" t="s">
         <v>324</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" spans="1:4">
-      <c r="A61" s="7" t="s">
+    <row r="62" s="2" customFormat="1" spans="1:4">
+      <c r="A62" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>328</v>
-      </c>
-      <c r="B62" t="s">
-        <v>329</v>
-      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>330</v>
+      </c>
+      <c r="B64" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" spans="1:4">
+      <c r="A65" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" s="7" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>334</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>336</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>337</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" s="2" customFormat="1" spans="1:4">
-      <c r="A68" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" ht="49.5" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:4">
+      <c r="A72" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" ht="49.5" spans="1:3">
+      <c r="A73" t="s">
+        <v>344</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" ht="37.5" spans="1:2">
+      <c r="A74" t="s">
+        <v>346</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:4">
+      <c r="A75" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>334</v>
+      </c>
+      <c r="B76" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>336</v>
+      </c>
+      <c r="B77" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>338</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B78" t="s">
         <v>339</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="70" ht="37.5" spans="1:2">
-      <c r="A70" t="s">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>340</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B79" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" spans="1:4">
-      <c r="A71" s="7" t="s">
+    <row r="81" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="1:4">
+      <c r="A82" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" ht="49.5" spans="1:3">
+      <c r="A83" t="s">
+        <v>350</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:4">
+      <c r="A84" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>328</v>
-      </c>
-      <c r="B72" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>330</v>
-      </c>
-      <c r="B73" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>332</v>
-      </c>
-      <c r="B74" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>334</v>
-      </c>
-      <c r="B75" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A77" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" s="2" customFormat="1" spans="1:4">
-      <c r="A78" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" ht="49.5" spans="1:3">
-      <c r="A79" t="s">
-        <v>344</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="1" spans="1:4">
-      <c r="A80" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>322</v>
-      </c>
-      <c r="B81" t="s">
-        <v>323</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>324</v>
-      </c>
-      <c r="B82" t="s">
-        <v>325</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" spans="1:4">
-      <c r="A83" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" ht="25.5" spans="1:3">
-      <c r="A84" t="s">
-        <v>350</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="B85" t="s">
-        <v>353</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="1:4">
+      <c r="A87" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" ht="25.5" spans="1:3">
+      <c r="A88" t="s">
         <v>356</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="B88" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C88" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>358</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="1" spans="1:4">
-      <c r="A88" s="7" t="s">
+      <c r="B89" t="s">
         <v>359</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="C89" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" ht="25.5" spans="1:2">
-      <c r="A89" t="s">
-        <v>258</v>
-      </c>
-      <c r="B89" s="10" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="90" ht="25.5" spans="1:2">
-      <c r="A90" t="s">
-        <v>260</v>
-      </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="92" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A92" s="4" t="s">
+      <c r="C90" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>363</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" s="2" customFormat="1" spans="1:4">
-      <c r="A93" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="B91" t="s">
+        <v>364</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1" spans="1:4">
+      <c r="A92" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" ht="25.5" spans="1:2">
+      <c r="A93" t="s">
+        <v>265</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" spans="1:2">
       <c r="A94" t="s">
-        <v>216</v>
-      </c>
-      <c r="B94" t="s">
-        <v>364</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="95" s="2" customFormat="1" spans="1:4">
-      <c r="A95" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" ht="25.5" spans="1:3">
-      <c r="A96" t="s">
-        <v>367</v>
-      </c>
-      <c r="B96" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" spans="1:3">
-      <c r="A97" t="s">
+    </row>
+    <row r="96" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A96" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" s="2" customFormat="1" spans="1:4">
+      <c r="A97" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" t="s">
         <v>370</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="98" s="2" customFormat="1" spans="1:4">
-      <c r="A98" s="7" t="s">
+      <c r="C98" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" s="2" customFormat="1" spans="1:4">
+      <c r="A99" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B99" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-    </row>
-    <row r="99" ht="25.5" spans="1:3">
-      <c r="A99" t="s">
-        <v>367</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" ht="25.5" spans="1:3">
       <c r="A100" t="s">
-        <v>369</v>
-      </c>
-      <c r="B100" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" spans="1:3">
+      <c r="A101" t="s">
         <v>375</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A102" s="4" t="s">
+      <c r="B101" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="C101" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" s="2" customFormat="1" spans="1:4">
+      <c r="A102" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" s="2" customFormat="1" spans="1:4">
-      <c r="A103" s="7" t="s">
+      <c r="B102" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" ht="25.5" spans="1:3">
+      <c r="A103" t="s">
+        <v>373</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" spans="1:3">
       <c r="A104" t="s">
-        <v>379</v>
+        <v>375</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="105" s="2" customFormat="1" spans="1:4">
-      <c r="A105" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>381</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+    </row>
+    <row r="106" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A106" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="108" s="2" customFormat="1" spans="1:4">
-      <c r="A108" s="7" t="s">
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" s="2" customFormat="1" spans="1:4">
+      <c r="A107" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>381</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>385</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" s="2" customFormat="1" spans="1:4">
+      <c r="A109" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>385</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>388</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="112" s="2" customFormat="1" spans="1:4">
+      <c r="A112" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>387</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>388</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
